--- a/biology/Botanique/Selenastraceae/Selenastraceae.xlsx
+++ b/biology/Botanique/Selenastraceae/Selenastraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Selenastraceae sont une famille d'algues vertes de l'ordre des Sphaeropleales[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Selenastraceae sont une famille d'algues vertes de l'ordre des Sphaeropleales. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Selenastrum dérivé du latin Selen-, lune, et –astrum, « astre, étoile »[3], littéralement « astre lunaire », en référence à la forme « en croissant de lune » de l'algue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Selenastrum dérivé du latin Selen-, lune, et –astrum, « astre, étoile », littéralement « astre lunaire », en référence à la forme « en croissant de lune » de l'algue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (27 février 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (27 février 2019) :
 Ankistrodesmus Corda
 Chlorolobion Korshikov
 Curvastrum T. S.Garcia
@@ -562,7 +578,7 @@
 Raphidium B.Schroeder
 Raphidocelis Hindák
 Selenastrum (en) Reinsch
-Selon BioLib                    (27 février 2019)[2] :
+Selon BioLib                    (27 février 2019) :
 Ankistrodesmus Corda
 Chlorolobion Korshikov
 Curvastrum T. S.Garcia
@@ -578,7 +594,7 @@
 Quadrigula Printz
 Raphidocelis Hindák
 Selenastrum Reinsch
-Selon Catalogue of Life                                   (27 février 2019)[4] :
+Selon Catalogue of Life                                   (27 février 2019) :
 Ankistrodesmus
 Chlorolobion
 Drepanochloris
@@ -590,14 +606,14 @@
 Quadrigula
 Raphidocelis
 Selenastrum
-Selon ITIS      (27 février 2019)[5] :
+Selon ITIS      (27 février 2019) :
 Ankistrodesmus Corda
 Kirchneriella Schmdle
 Monoraphidium Komárková-Legnerová
 Quadrigula Printz
 Selanastrum Reinsch
 Selenastrum Kuetzing, 1845
-Selon NCBI  (27 février 2019)[6] :
+Selon NCBI  (27 février 2019) :
 Ankistrodesmus Corda, 1838
 Chlorolobion Korshikov, 1953
 Curvastrum T.S.Garcia, 2017
@@ -614,7 +630,7 @@
 Raphidocelis Hindak, 1977
 Rhombocystis Komarek, 1983
 Selenastrum Reinsch, 1867
-Selon World Register of Marine Species                               (27 février 2019)[7] :
+Selon World Register of Marine Species                               (27 février 2019) :
 Ankistrodesmus Corda, 1838
 Chlorolobion Korshikov, 1953
 Drepanochloris P.Marvan, J.Komárek &amp; A.Comas, 1984
